--- a/docs/工程管理表.xlsx
+++ b/docs/工程管理表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06AEE2A-49F9-4AA2-8E93-E9E0FF6873F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE572E1-24BF-48DC-B356-7F71079EF66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -574,8 +574,8 @@
     <numFmt numFmtId="179" formatCode="aaa\,\ m/d/yyyy"/>
     <numFmt numFmtId="180" formatCode="dd\-mmm\-yyyy;@"/>
     <numFmt numFmtId="181" formatCode="d"/>
-    <numFmt numFmtId="185" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="186" formatCode="h:mm;@"/>
+    <numFmt numFmtId="182" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="183" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="50" x14ac:knownFonts="1">
     <font>
@@ -2026,25 +2026,6 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="17" xfId="54" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="45" borderId="18" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -2060,10 +2041,7 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="57" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="45" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="45" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="183" fontId="45" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="56" applyFont="1">
@@ -2072,7 +2050,7 @@
     <xf numFmtId="0" fontId="49" fillId="45" borderId="0" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="45" fillId="0" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="45" fillId="0" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="56" applyFont="1" applyAlignment="1">
@@ -2156,6 +2134,28 @@
     </xf>
     <xf numFmtId="56" fontId="39" fillId="0" borderId="32" xfId="54" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="182" fontId="45" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="60">
@@ -2221,43 +2221,6 @@
     <cellStyle name="良い" xfId="18" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="30">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2382,7 +2345,7 @@
         <name val="Meiryo UI"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="186" formatCode="h:mm;@"/>
+      <numFmt numFmtId="183" formatCode="h:mm;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2412,6 +2375,43 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -2718,17 +2718,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{56394D97-6440-4092-A3BA-97FF8EEE0B46}" name="スケジュール" displayName="スケジュール" ref="B3:I51" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{56394D97-6440-4092-A3BA-97FF8EEE0B46}" name="スケジュール" displayName="スケジュール" ref="B3:I51" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="B3:I51" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{22735272-9BBC-4423-8255-E4B481ADDF75}" name="時刻" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{B0FE321B-C664-4D0A-816C-79B7234A3276}" name="月" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{A7F49256-5CB0-418B-B339-8E5DF0863F43}" name="火" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{6D1E9B6A-66E9-4CF7-B775-E3C821FB11D7}" name="水" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{E7486B4F-138B-48BE-8A69-2E626874BF29}" name="木" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{21A57594-FF22-40A8-B61F-6FBFA0CF2303}" name="金" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{A8173C71-34E7-4BF1-9E38-5CA9F96BC2B7}" name="土" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{D4746B53-62D0-48F8-B228-8BE696A15DB7}" name="日" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{22735272-9BBC-4423-8255-E4B481ADDF75}" name="時刻" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{B0FE321B-C664-4D0A-816C-79B7234A3276}" name="月" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{A7F49256-5CB0-418B-B339-8E5DF0863F43}" name="火" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{6D1E9B6A-66E9-4CF7-B775-E3C821FB11D7}" name="水" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{E7486B4F-138B-48BE-8A69-2E626874BF29}" name="木" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{21A57594-FF22-40A8-B61F-6FBFA0CF2303}" name="金" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{A8173C71-34E7-4BF1-9E38-5CA9F96BC2B7}" name="土" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{D4746B53-62D0-48F8-B228-8BE696A15DB7}" name="日" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="スケジュール" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
   <extLst>
@@ -3008,8 +3008,8 @@
   <dimension ref="A1:BM41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3052,121 +3052,121 @@
         <v>2</v>
       </c>
       <c r="B3" s="17"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="133" t="s">
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="125" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="129">
+      <c r="F3" s="121">
         <v>44468</v>
       </c>
-      <c r="G3" s="128"/>
+      <c r="G3" s="120"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="133" t="s">
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="130">
+      <c r="F4" s="122">
         <v>1</v>
       </c>
-      <c r="G4" s="131"/>
-      <c r="J4" s="91">
+      <c r="G4" s="123"/>
+      <c r="J4" s="128">
         <f>J5</f>
         <v>44466</v>
       </c>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="91">
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="130"/>
+      <c r="Q4" s="128">
         <f>Q5</f>
         <v>44473</v>
       </c>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="93"/>
-      <c r="X4" s="91">
+      <c r="R4" s="129"/>
+      <c r="S4" s="129"/>
+      <c r="T4" s="129"/>
+      <c r="U4" s="129"/>
+      <c r="V4" s="129"/>
+      <c r="W4" s="130"/>
+      <c r="X4" s="128">
         <f>X5</f>
         <v>44480</v>
       </c>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="93"/>
-      <c r="AE4" s="91">
+      <c r="Y4" s="129"/>
+      <c r="Z4" s="129"/>
+      <c r="AA4" s="129"/>
+      <c r="AB4" s="129"/>
+      <c r="AC4" s="129"/>
+      <c r="AD4" s="130"/>
+      <c r="AE4" s="128">
         <f>AE5</f>
         <v>44487</v>
       </c>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="93"/>
-      <c r="AL4" s="91">
+      <c r="AF4" s="129"/>
+      <c r="AG4" s="129"/>
+      <c r="AH4" s="129"/>
+      <c r="AI4" s="129"/>
+      <c r="AJ4" s="129"/>
+      <c r="AK4" s="130"/>
+      <c r="AL4" s="128">
         <f>AL5</f>
         <v>44494</v>
       </c>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="92"/>
-      <c r="AP4" s="92"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="93"/>
-      <c r="AS4" s="91">
+      <c r="AM4" s="129"/>
+      <c r="AN4" s="129"/>
+      <c r="AO4" s="129"/>
+      <c r="AP4" s="129"/>
+      <c r="AQ4" s="129"/>
+      <c r="AR4" s="130"/>
+      <c r="AS4" s="128">
         <f>AS5</f>
         <v>44501</v>
       </c>
-      <c r="AT4" s="92"/>
-      <c r="AU4" s="92"/>
-      <c r="AV4" s="92"/>
-      <c r="AW4" s="92"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="93"/>
-      <c r="AZ4" s="91">
+      <c r="AT4" s="129"/>
+      <c r="AU4" s="129"/>
+      <c r="AV4" s="129"/>
+      <c r="AW4" s="129"/>
+      <c r="AX4" s="129"/>
+      <c r="AY4" s="130"/>
+      <c r="AZ4" s="128">
         <f>AZ5</f>
         <v>44508</v>
       </c>
-      <c r="BA4" s="92"/>
-      <c r="BB4" s="92"/>
-      <c r="BC4" s="92"/>
-      <c r="BD4" s="92"/>
-      <c r="BE4" s="92"/>
-      <c r="BF4" s="93"/>
-      <c r="BG4" s="91">
+      <c r="BA4" s="129"/>
+      <c r="BB4" s="129"/>
+      <c r="BC4" s="129"/>
+      <c r="BD4" s="129"/>
+      <c r="BE4" s="129"/>
+      <c r="BF4" s="130"/>
+      <c r="BG4" s="128">
         <f>BG5</f>
         <v>44515</v>
       </c>
-      <c r="BH4" s="92"/>
-      <c r="BI4" s="92"/>
-      <c r="BJ4" s="92"/>
-      <c r="BK4" s="92"/>
-      <c r="BL4" s="92"/>
-      <c r="BM4" s="93"/>
+      <c r="BH4" s="129"/>
+      <c r="BI4" s="129"/>
+      <c r="BJ4" s="129"/>
+      <c r="BK4" s="129"/>
+      <c r="BL4" s="129"/>
+      <c r="BM4" s="130"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
       <c r="J5" s="81">
         <f>プロジェクト_開始-WEEKDAY(プロジェクト_開始,1)+2+7*(週_表示-1)</f>
         <v>44466</v>
@@ -3799,10 +3799,9 @@
         <v>1</v>
       </c>
       <c r="E9" s="50">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F9" s="18">
-        <f>プロジェクト_開始</f>
         <v>44468</v>
       </c>
       <c r="G9" s="18">
@@ -3885,14 +3884,14 @@
         <v>1</v>
       </c>
       <c r="E10" s="50">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F10" s="18">
-        <f>G9+1</f>
+        <f t="shared" ref="F10:F16" si="5">G9+1</f>
         <v>44469</v>
       </c>
       <c r="G10" s="18">
-        <f t="shared" ref="G10:G34" si="5">F10+(D10-1)</f>
+        <f t="shared" ref="G10:G34" si="6">F10+(D10-1)</f>
         <v>44469</v>
       </c>
       <c r="H10" s="49"/>
@@ -3972,11 +3971,11 @@
         <v>0</v>
       </c>
       <c r="F11" s="18">
-        <f>G10+1</f>
+        <f t="shared" si="5"/>
         <v>44470</v>
       </c>
       <c r="G11" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44470</v>
       </c>
       <c r="H11" s="49"/>
@@ -4056,11 +4055,11 @@
         <v>0</v>
       </c>
       <c r="F12" s="18">
-        <f>G11+1</f>
+        <f t="shared" si="5"/>
         <v>44471</v>
       </c>
       <c r="G12" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44471</v>
       </c>
       <c r="H12" s="49"/>
@@ -4140,11 +4139,11 @@
         <v>0</v>
       </c>
       <c r="F13" s="18">
-        <f>G12+1</f>
+        <f t="shared" si="5"/>
         <v>44472</v>
       </c>
       <c r="G13" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44472</v>
       </c>
       <c r="H13" s="49"/>
@@ -4224,11 +4223,11 @@
         <v>0</v>
       </c>
       <c r="F14" s="18">
-        <f>G13+1</f>
+        <f t="shared" si="5"/>
         <v>44473</v>
       </c>
       <c r="G14" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44473</v>
       </c>
       <c r="H14" s="49"/>
@@ -4305,11 +4304,11 @@
         <v>0</v>
       </c>
       <c r="F15" s="18">
-        <f>G14+1</f>
+        <f t="shared" si="5"/>
         <v>44474</v>
       </c>
       <c r="G15" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44474</v>
       </c>
       <c r="H15" s="49"/>
@@ -4386,11 +4385,11 @@
         <v>0</v>
       </c>
       <c r="F16" s="18">
-        <f>G15+1</f>
+        <f t="shared" si="5"/>
         <v>44475</v>
       </c>
       <c r="G16" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44475</v>
       </c>
       <c r="H16" s="49"/>
@@ -4543,7 +4542,7 @@
         <v>44476</v>
       </c>
       <c r="G18" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44476</v>
       </c>
       <c r="H18" s="49"/>
@@ -4625,7 +4624,7 @@
         <v>44477</v>
       </c>
       <c r="G19" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44477</v>
       </c>
       <c r="H19" s="49"/>
@@ -4706,7 +4705,7 @@
         <v>44478</v>
       </c>
       <c r="G20" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44478</v>
       </c>
       <c r="H20" s="49"/>
@@ -4786,11 +4785,11 @@
         <v>0.5</v>
       </c>
       <c r="F21" s="19">
-        <f t="shared" ref="F21:F24" si="6">G20+1</f>
+        <f t="shared" ref="F21:F24" si="7">G20+1</f>
         <v>44479</v>
       </c>
       <c r="G21" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44479</v>
       </c>
       <c r="H21" s="49"/>
@@ -4868,11 +4867,11 @@
       </c>
       <c r="E22" s="54"/>
       <c r="F22" s="19">
+        <f t="shared" si="7"/>
+        <v>44480</v>
+      </c>
+      <c r="G22" s="19">
         <f t="shared" si="6"/>
-        <v>44480</v>
-      </c>
-      <c r="G22" s="19">
-        <f t="shared" si="5"/>
         <v>44480</v>
       </c>
       <c r="H22" s="49"/>
@@ -4950,11 +4949,11 @@
       </c>
       <c r="E23" s="54"/>
       <c r="F23" s="19">
+        <f t="shared" si="7"/>
+        <v>44481</v>
+      </c>
+      <c r="G23" s="19">
         <f t="shared" si="6"/>
-        <v>44481</v>
-      </c>
-      <c r="G23" s="19">
-        <f t="shared" si="5"/>
         <v>44481</v>
       </c>
       <c r="H23" s="49"/>
@@ -5032,11 +5031,11 @@
       </c>
       <c r="E24" s="54"/>
       <c r="F24" s="19">
+        <f t="shared" si="7"/>
+        <v>44482</v>
+      </c>
+      <c r="G24" s="19">
         <f t="shared" si="6"/>
-        <v>44482</v>
-      </c>
-      <c r="G24" s="19">
-        <f t="shared" si="5"/>
         <v>44482</v>
       </c>
       <c r="H24" s="49"/>
@@ -5189,7 +5188,7 @@
         <v>44483</v>
       </c>
       <c r="G26" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44483</v>
       </c>
       <c r="H26" s="49"/>
@@ -5271,7 +5270,7 @@
         <v>44484</v>
       </c>
       <c r="G27" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44484</v>
       </c>
       <c r="H27" s="49"/>
@@ -5349,11 +5348,11 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="20">
-        <f t="shared" ref="F28:F30" si="7">G27+1</f>
+        <f t="shared" ref="F28:F30" si="8">G27+1</f>
         <v>44485</v>
       </c>
       <c r="G28" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44485</v>
       </c>
       <c r="H28" s="49"/>
@@ -5431,11 +5430,11 @@
       </c>
       <c r="E29" s="58"/>
       <c r="F29" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44486</v>
       </c>
       <c r="G29" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44486</v>
       </c>
       <c r="H29" s="49"/>
@@ -5513,11 +5512,11 @@
       </c>
       <c r="E30" s="58"/>
       <c r="F30" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44487</v>
       </c>
       <c r="G30" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44487</v>
       </c>
       <c r="H30" s="49"/>
@@ -5673,7 +5672,7 @@
         <v>44488</v>
       </c>
       <c r="G32" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44488</v>
       </c>
       <c r="H32" s="49"/>
@@ -5755,7 +5754,7 @@
         <v>44489</v>
       </c>
       <c r="G33" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44489</v>
       </c>
       <c r="H33" s="49"/>
@@ -5837,7 +5836,7 @@
         <v>44490</v>
       </c>
       <c r="G34" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44490</v>
       </c>
       <c r="H34" s="49"/>
@@ -6214,15 +6213,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="Q4:W4"/>
+    <mergeCell ref="X4:AD4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="J4:P4"/>
     <mergeCell ref="AE4:AK4"/>
     <mergeCell ref="AL4:AR4"/>
     <mergeCell ref="AS4:AY4"/>
     <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
-    <mergeCell ref="Q4:W4"/>
-    <mergeCell ref="X4:AD4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="J4:P4"/>
   </mergeCells>
   <phoneticPr fontId="37"/>
   <conditionalFormatting sqref="E7:E38">
@@ -6240,15 +6239,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:BM38">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:BM38">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="3" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6311,149 +6310,149 @@
     </row>
     <row r="2" spans="1:31" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:31" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="112" t="s">
+      <c r="D3" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="113">
+      <c r="E3" s="105">
         <v>0.375</v>
       </c>
-      <c r="F3" s="113">
+      <c r="F3" s="105">
         <v>0.39583333333333331</v>
       </c>
-      <c r="G3" s="113">
+      <c r="G3" s="105">
         <v>0.41666666666666669</v>
       </c>
-      <c r="H3" s="113">
+      <c r="H3" s="105">
         <v>0.4375</v>
       </c>
-      <c r="I3" s="113">
+      <c r="I3" s="105">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J3" s="113">
+      <c r="J3" s="105">
         <v>0.47916666666666669</v>
       </c>
-      <c r="K3" s="113">
+      <c r="K3" s="105">
         <v>0.5</v>
       </c>
-      <c r="L3" s="113">
+      <c r="L3" s="105">
         <v>0.52083333333333337</v>
       </c>
-      <c r="M3" s="113">
+      <c r="M3" s="105">
         <v>0.54166666666666663</v>
       </c>
-      <c r="N3" s="113">
+      <c r="N3" s="105">
         <v>0.5625</v>
       </c>
-      <c r="O3" s="113">
+      <c r="O3" s="105">
         <v>0.58333333333333337</v>
       </c>
-      <c r="P3" s="113">
+      <c r="P3" s="105">
         <v>0.60416666666666663</v>
       </c>
-      <c r="Q3" s="113">
+      <c r="Q3" s="105">
         <v>0.625</v>
       </c>
-      <c r="R3" s="113">
+      <c r="R3" s="105">
         <v>0.64583333333333337</v>
       </c>
-      <c r="S3" s="113">
+      <c r="S3" s="105">
         <v>0.66666666666666663</v>
       </c>
-      <c r="T3" s="113">
+      <c r="T3" s="105">
         <v>0.6875</v>
       </c>
-      <c r="U3" s="113">
+      <c r="U3" s="105">
         <v>0.70833333333333337</v>
       </c>
-      <c r="V3" s="113">
+      <c r="V3" s="105">
         <v>0.72916666666666663</v>
       </c>
-      <c r="W3" s="113">
+      <c r="W3" s="105">
         <v>0.75</v>
       </c>
-      <c r="X3" s="113">
+      <c r="X3" s="105">
         <v>0.77083333333333337</v>
       </c>
-      <c r="Y3" s="113">
+      <c r="Y3" s="105">
         <v>0.79166666666666663</v>
       </c>
-      <c r="Z3" s="113">
+      <c r="Z3" s="105">
         <v>0.8125</v>
       </c>
-      <c r="AA3" s="113">
+      <c r="AA3" s="105">
         <v>0.83333333333333337</v>
       </c>
-      <c r="AB3" s="113">
+      <c r="AB3" s="105">
         <v>0.85416666666666663</v>
       </c>
-      <c r="AC3" s="113">
+      <c r="AC3" s="105">
         <v>0.875</v>
       </c>
-      <c r="AD3" s="113">
+      <c r="AD3" s="105">
         <v>0.91666666666666696</v>
       </c>
-      <c r="AE3" s="114">
+      <c r="AE3" s="106">
         <v>0.95833333333333304</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="119">
+      <c r="A4" s="111">
         <v>44468</v>
       </c>
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="116">
+      <c r="C4" s="108">
         <v>0.75</v>
       </c>
-      <c r="D4" s="110">
+      <c r="D4" s="102">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="109"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="109"/>
-      <c r="T4" s="109"/>
-      <c r="U4" s="109"/>
-      <c r="V4" s="109"/>
-      <c r="W4" s="109"/>
-      <c r="X4" s="109"/>
-      <c r="Y4" s="109"/>
-      <c r="Z4" s="109"/>
-      <c r="AA4" s="109"/>
-      <c r="AB4" s="109"/>
-      <c r="AC4" s="109"/>
-      <c r="AD4" s="109"/>
-      <c r="AE4" s="120"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="101"/>
+      <c r="Z4" s="101"/>
+      <c r="AA4" s="101"/>
+      <c r="AB4" s="101"/>
+      <c r="AC4" s="101"/>
+      <c r="AD4" s="101"/>
+      <c r="AE4" s="112"/>
     </row>
     <row r="5" spans="1:31" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="134">
+      <c r="A5" s="126">
         <v>44469</v>
       </c>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="117">
+      <c r="C5" s="109">
         <v>0.375</v>
       </c>
       <c r="D5" s="89">
@@ -6485,16 +6484,16 @@
       <c r="AB5" s="90"/>
       <c r="AC5" s="90"/>
       <c r="AD5" s="90"/>
-      <c r="AE5" s="121"/>
+      <c r="AE5" s="113"/>
     </row>
     <row r="6" spans="1:31" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="134">
+      <c r="A6" s="126">
         <v>44470</v>
       </c>
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="117">
+      <c r="C6" s="109">
         <v>0.77083333333333337</v>
       </c>
       <c r="D6" s="89">
@@ -6526,16 +6525,16 @@
       <c r="AB6" s="90"/>
       <c r="AC6" s="90"/>
       <c r="AD6" s="90"/>
-      <c r="AE6" s="121"/>
+      <c r="AE6" s="113"/>
     </row>
     <row r="7" spans="1:31" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="134">
+      <c r="A7" s="126">
         <v>44471</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="117">
+      <c r="C7" s="109">
         <v>0.83333333333333337</v>
       </c>
       <c r="D7" s="89">
@@ -6567,14 +6566,14 @@
       <c r="AB7" s="90"/>
       <c r="AC7" s="90"/>
       <c r="AD7" s="90"/>
-      <c r="AE7" s="121"/>
+      <c r="AE7" s="113"/>
     </row>
     <row r="8" spans="1:31" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="134">
+      <c r="A8" s="126">
         <v>44472</v>
       </c>
-      <c r="B8" s="121"/>
-      <c r="C8" s="117"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="109"/>
       <c r="D8" s="89"/>
       <c r="E8" s="90"/>
       <c r="F8" s="90"/>
@@ -6602,14 +6601,14 @@
       <c r="AB8" s="90"/>
       <c r="AC8" s="90"/>
       <c r="AD8" s="90"/>
-      <c r="AE8" s="121"/>
+      <c r="AE8" s="113"/>
     </row>
     <row r="9" spans="1:31" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="134">
+      <c r="A9" s="126">
         <v>44473</v>
       </c>
-      <c r="B9" s="121"/>
-      <c r="C9" s="117"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="109"/>
       <c r="D9" s="89"/>
       <c r="E9" s="90"/>
       <c r="F9" s="90"/>
@@ -6637,14 +6636,14 @@
       <c r="AB9" s="90"/>
       <c r="AC9" s="90"/>
       <c r="AD9" s="90"/>
-      <c r="AE9" s="121"/>
+      <c r="AE9" s="113"/>
     </row>
     <row r="10" spans="1:31" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="134">
+      <c r="A10" s="126">
         <v>44474</v>
       </c>
-      <c r="B10" s="121"/>
-      <c r="C10" s="117"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="109"/>
       <c r="D10" s="89"/>
       <c r="E10" s="90"/>
       <c r="F10" s="90"/>
@@ -6672,14 +6671,14 @@
       <c r="AB10" s="90"/>
       <c r="AC10" s="90"/>
       <c r="AD10" s="90"/>
-      <c r="AE10" s="121"/>
+      <c r="AE10" s="113"/>
     </row>
     <row r="11" spans="1:31" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="134">
+      <c r="A11" s="126">
         <v>44475</v>
       </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="117"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="109"/>
       <c r="D11" s="89"/>
       <c r="E11" s="90"/>
       <c r="F11" s="90"/>
@@ -6707,14 +6706,14 @@
       <c r="AB11" s="90"/>
       <c r="AC11" s="90"/>
       <c r="AD11" s="90"/>
-      <c r="AE11" s="121"/>
+      <c r="AE11" s="113"/>
     </row>
     <row r="12" spans="1:31" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="134">
+      <c r="A12" s="126">
         <v>44476</v>
       </c>
-      <c r="B12" s="121"/>
-      <c r="C12" s="117"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="109"/>
       <c r="D12" s="89"/>
       <c r="E12" s="90"/>
       <c r="F12" s="90"/>
@@ -6742,14 +6741,14 @@
       <c r="AB12" s="90"/>
       <c r="AC12" s="90"/>
       <c r="AD12" s="90"/>
-      <c r="AE12" s="121"/>
+      <c r="AE12" s="113"/>
     </row>
     <row r="13" spans="1:31" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="134">
+      <c r="A13" s="126">
         <v>44477</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="117"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="109"/>
       <c r="D13" s="89"/>
       <c r="E13" s="90"/>
       <c r="F13" s="90"/>
@@ -6777,14 +6776,14 @@
       <c r="AB13" s="90"/>
       <c r="AC13" s="90"/>
       <c r="AD13" s="90"/>
-      <c r="AE13" s="121"/>
+      <c r="AE13" s="113"/>
     </row>
     <row r="14" spans="1:31" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="134">
+      <c r="A14" s="126">
         <v>44478</v>
       </c>
-      <c r="B14" s="121"/>
-      <c r="C14" s="117"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="109"/>
       <c r="D14" s="89"/>
       <c r="E14" s="90"/>
       <c r="F14" s="90"/>
@@ -6812,14 +6811,14 @@
       <c r="AB14" s="90"/>
       <c r="AC14" s="90"/>
       <c r="AD14" s="90"/>
-      <c r="AE14" s="121"/>
+      <c r="AE14" s="113"/>
     </row>
     <row r="15" spans="1:31" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="134">
+      <c r="A15" s="126">
         <v>44479</v>
       </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="117"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="109"/>
       <c r="D15" s="89"/>
       <c r="E15" s="90"/>
       <c r="F15" s="90"/>
@@ -6847,14 +6846,14 @@
       <c r="AB15" s="90"/>
       <c r="AC15" s="90"/>
       <c r="AD15" s="90"/>
-      <c r="AE15" s="121"/>
+      <c r="AE15" s="113"/>
     </row>
     <row r="16" spans="1:31" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="134">
+      <c r="A16" s="126">
         <v>44480</v>
       </c>
-      <c r="B16" s="121"/>
-      <c r="C16" s="117"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="109"/>
       <c r="D16" s="89"/>
       <c r="E16" s="90"/>
       <c r="F16" s="90"/>
@@ -6882,14 +6881,14 @@
       <c r="AB16" s="90"/>
       <c r="AC16" s="90"/>
       <c r="AD16" s="90"/>
-      <c r="AE16" s="121"/>
+      <c r="AE16" s="113"/>
     </row>
     <row r="17" spans="1:31" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="134">
+      <c r="A17" s="126">
         <v>44481</v>
       </c>
-      <c r="B17" s="121"/>
-      <c r="C17" s="117"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="109"/>
       <c r="D17" s="89"/>
       <c r="E17" s="90"/>
       <c r="F17" s="90"/>
@@ -6917,14 +6916,14 @@
       <c r="AB17" s="90"/>
       <c r="AC17" s="90"/>
       <c r="AD17" s="90"/>
-      <c r="AE17" s="121"/>
+      <c r="AE17" s="113"/>
     </row>
     <row r="18" spans="1:31" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="134">
+      <c r="A18" s="126">
         <v>44482</v>
       </c>
-      <c r="B18" s="121"/>
-      <c r="C18" s="117"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="109"/>
       <c r="D18" s="89"/>
       <c r="E18" s="90"/>
       <c r="F18" s="90"/>
@@ -6952,14 +6951,14 @@
       <c r="AB18" s="90"/>
       <c r="AC18" s="90"/>
       <c r="AD18" s="90"/>
-      <c r="AE18" s="121"/>
+      <c r="AE18" s="113"/>
     </row>
     <row r="19" spans="1:31" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="134">
+      <c r="A19" s="126">
         <v>44483</v>
       </c>
-      <c r="B19" s="121"/>
-      <c r="C19" s="117"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="109"/>
       <c r="D19" s="89"/>
       <c r="E19" s="90"/>
       <c r="F19" s="90"/>
@@ -6987,14 +6986,14 @@
       <c r="AB19" s="90"/>
       <c r="AC19" s="90"/>
       <c r="AD19" s="90"/>
-      <c r="AE19" s="121"/>
+      <c r="AE19" s="113"/>
     </row>
     <row r="20" spans="1:31" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="134">
+      <c r="A20" s="126">
         <v>44484</v>
       </c>
-      <c r="B20" s="121"/>
-      <c r="C20" s="117"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="109"/>
       <c r="D20" s="89"/>
       <c r="E20" s="90"/>
       <c r="F20" s="90"/>
@@ -7022,14 +7021,14 @@
       <c r="AB20" s="90"/>
       <c r="AC20" s="90"/>
       <c r="AD20" s="90"/>
-      <c r="AE20" s="121"/>
+      <c r="AE20" s="113"/>
     </row>
     <row r="21" spans="1:31" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="134">
+      <c r="A21" s="126">
         <v>44485</v>
       </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="117"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="109"/>
       <c r="D21" s="89"/>
       <c r="E21" s="90"/>
       <c r="F21" s="90"/>
@@ -7057,14 +7056,14 @@
       <c r="AB21" s="90"/>
       <c r="AC21" s="90"/>
       <c r="AD21" s="90"/>
-      <c r="AE21" s="121"/>
+      <c r="AE21" s="113"/>
     </row>
     <row r="22" spans="1:31" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="134">
+      <c r="A22" s="126">
         <v>44486</v>
       </c>
-      <c r="B22" s="121"/>
-      <c r="C22" s="117"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="109"/>
       <c r="D22" s="89"/>
       <c r="E22" s="90"/>
       <c r="F22" s="90"/>
@@ -7092,14 +7091,14 @@
       <c r="AB22" s="90"/>
       <c r="AC22" s="90"/>
       <c r="AD22" s="90"/>
-      <c r="AE22" s="121"/>
+      <c r="AE22" s="113"/>
     </row>
     <row r="23" spans="1:31" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="134">
+      <c r="A23" s="126">
         <v>44487</v>
       </c>
-      <c r="B23" s="121"/>
-      <c r="C23" s="117"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="109"/>
       <c r="D23" s="89"/>
       <c r="E23" s="90"/>
       <c r="F23" s="90"/>
@@ -7127,47 +7126,47 @@
       <c r="AB23" s="90"/>
       <c r="AC23" s="90"/>
       <c r="AD23" s="90"/>
-      <c r="AE23" s="121"/>
+      <c r="AE23" s="113"/>
     </row>
     <row r="24" spans="1:31" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="135">
+      <c r="A24" s="127">
         <v>44488</v>
       </c>
-      <c r="B24" s="122"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="125"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="125"/>
-      <c r="J24" s="125"/>
-      <c r="K24" s="125"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="125"/>
-      <c r="N24" s="125"/>
-      <c r="O24" s="125"/>
-      <c r="P24" s="125"/>
-      <c r="Q24" s="125"/>
-      <c r="R24" s="125"/>
-      <c r="S24" s="125"/>
-      <c r="T24" s="125"/>
-      <c r="U24" s="125"/>
-      <c r="V24" s="125"/>
-      <c r="W24" s="125"/>
-      <c r="X24" s="125"/>
-      <c r="Y24" s="125"/>
-      <c r="Z24" s="125"/>
-      <c r="AA24" s="125"/>
-      <c r="AB24" s="125"/>
-      <c r="AC24" s="125"/>
-      <c r="AD24" s="125"/>
-      <c r="AE24" s="122"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="117"/>
+      <c r="K24" s="117"/>
+      <c r="L24" s="117"/>
+      <c r="M24" s="117"/>
+      <c r="N24" s="117"/>
+      <c r="O24" s="117"/>
+      <c r="P24" s="117"/>
+      <c r="Q24" s="117"/>
+      <c r="R24" s="117"/>
+      <c r="S24" s="117"/>
+      <c r="T24" s="117"/>
+      <c r="U24" s="117"/>
+      <c r="V24" s="117"/>
+      <c r="W24" s="117"/>
+      <c r="X24" s="117"/>
+      <c r="Y24" s="117"/>
+      <c r="Z24" s="117"/>
+      <c r="AA24" s="117"/>
+      <c r="AB24" s="117"/>
+      <c r="AC24" s="117"/>
+      <c r="AD24" s="117"/>
+      <c r="AE24" s="114"/>
     </row>
   </sheetData>
   <phoneticPr fontId="37"/>
   <conditionalFormatting sqref="E4:AE24">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>AND($C4&lt;=E$3, E$3&lt;=$D4)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7190,775 +7189,775 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" style="101" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" style="101" customWidth="1"/>
-    <col min="3" max="9" width="10.81640625" style="101" customWidth="1"/>
-    <col min="10" max="10" width="2.81640625" style="101" customWidth="1"/>
-    <col min="11" max="16384" width="8.90625" style="101"/>
+    <col min="1" max="1" width="2.81640625" style="94" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" style="94" customWidth="1"/>
+    <col min="3" max="9" width="10.81640625" style="94" customWidth="1"/>
+    <col min="10" max="10" width="2.81640625" style="94" customWidth="1"/>
+    <col min="11" max="16384" width="8.90625" style="94"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="100"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="93"/>
     </row>
     <row r="2" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="103">
+      <c r="C2" s="132">
         <v>44466</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="102" t="s">
+      <c r="D2" s="132"/>
+      <c r="E2" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="104">
+      <c r="F2" s="96">
         <v>0.29166666666666669</v>
       </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
     </row>
     <row r="3" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="106" t="s">
+      <c r="D3" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="106" t="s">
+      <c r="E3" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="106" t="s">
+      <c r="F3" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="106" t="s">
+      <c r="G3" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="106" t="s">
+      <c r="H3" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="106" t="s">
+      <c r="I3" s="98" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="107">
+      <c r="B4" s="99">
         <f>開始時刻</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
     </row>
     <row r="5" spans="2:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="107">
+      <c r="B5" s="99">
         <f t="shared" ref="B5:B51" si="0">B4+TIME(0,30,0)</f>
         <v>0.3125</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
     </row>
     <row r="6" spans="2:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="107">
+      <c r="B6" s="99">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="126" t="s">
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="118" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
     </row>
     <row r="7" spans="2:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="107">
+      <c r="B7" s="99">
         <f t="shared" si="0"/>
         <v>0.35416666666666663</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="126" t="s">
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="118" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
     </row>
     <row r="8" spans="2:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="107">
+      <c r="B8" s="99">
         <f t="shared" si="0"/>
         <v>0.37499999999999994</v>
       </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="126" t="s">
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="118" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
     </row>
     <row r="9" spans="2:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="107">
+      <c r="B9" s="99">
         <f t="shared" si="0"/>
         <v>0.39583333333333326</v>
       </c>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="126" t="s">
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="118" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="108"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
     </row>
     <row r="10" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="107">
+      <c r="B10" s="99">
         <f t="shared" si="0"/>
         <v>0.41666666666666657</v>
       </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="127" t="s">
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
     </row>
     <row r="11" spans="2:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="107">
+      <c r="B11" s="99">
         <f t="shared" si="0"/>
         <v>0.43749999999999989</v>
       </c>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="127" t="s">
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
     </row>
     <row r="12" spans="2:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="107">
+      <c r="B12" s="99">
         <f t="shared" si="0"/>
         <v>0.4583333333333332</v>
       </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="127" t="s">
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
     </row>
     <row r="13" spans="2:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="107">
+      <c r="B13" s="99">
         <f t="shared" si="0"/>
         <v>0.47916666666666652</v>
       </c>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="127" t="s">
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
     </row>
     <row r="14" spans="2:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="107">
+      <c r="B14" s="99">
         <f t="shared" si="0"/>
         <v>0.49999999999999983</v>
       </c>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
     </row>
     <row r="15" spans="2:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="107">
+      <c r="B15" s="99">
         <f t="shared" si="0"/>
         <v>0.52083333333333315</v>
       </c>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
     </row>
     <row r="16" spans="2:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="107">
+      <c r="B16" s="99">
         <f t="shared" si="0"/>
         <v>0.54166666666666652</v>
       </c>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108" t="s">
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
     </row>
     <row r="17" spans="2:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="107">
+      <c r="B17" s="99">
         <f t="shared" si="0"/>
         <v>0.56249999999999989</v>
       </c>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108" t="s">
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="108"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
     </row>
     <row r="18" spans="2:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="107">
+      <c r="B18" s="99">
         <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
       </c>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108" t="s">
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="108"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
     </row>
     <row r="19" spans="2:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="107">
+      <c r="B19" s="99">
         <f t="shared" si="0"/>
         <v>0.60416666666666663</v>
       </c>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108" t="s">
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="G19" s="108"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="108"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="100"/>
     </row>
     <row r="20" spans="2:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="107">
+      <c r="B20" s="99">
         <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="108" t="s">
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
     </row>
     <row r="21" spans="2:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="107">
+      <c r="B21" s="99">
         <f t="shared" si="0"/>
         <v>0.64583333333333337</v>
       </c>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108" t="s">
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
     </row>
     <row r="22" spans="2:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="107">
+      <c r="B22" s="99">
         <f t="shared" si="0"/>
         <v>0.66666666666666674</v>
       </c>
-      <c r="C22" s="108"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108" t="s">
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="108"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
     </row>
     <row r="23" spans="2:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="107">
+      <c r="B23" s="99">
         <f t="shared" si="0"/>
         <v>0.68750000000000011</v>
       </c>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108" t="s">
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="G23" s="108"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="108"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
     </row>
     <row r="24" spans="2:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="107">
+      <c r="B24" s="99">
         <f t="shared" si="0"/>
         <v>0.70833333333333348</v>
       </c>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108" t="s">
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="G24" s="108"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="108"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
     </row>
     <row r="25" spans="2:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="107">
+      <c r="B25" s="99">
         <f t="shared" si="0"/>
         <v>0.72916666666666685</v>
       </c>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108" t="s">
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="108"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="100"/>
     </row>
     <row r="26" spans="2:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="107">
+      <c r="B26" s="99">
         <f t="shared" si="0"/>
         <v>0.75000000000000022</v>
       </c>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108" t="s">
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="108" t="s">
+      <c r="F26" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="G26" s="108"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="108"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
     </row>
     <row r="27" spans="2:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="107">
+      <c r="B27" s="99">
         <f t="shared" si="0"/>
         <v>0.77083333333333359</v>
       </c>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108" t="s">
+      <c r="C27" s="100"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="F27" s="108" t="s">
+      <c r="F27" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="G27" s="108"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="108"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
     </row>
     <row r="28" spans="2:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="107">
+      <c r="B28" s="99">
         <f t="shared" si="0"/>
         <v>0.79166666666666696</v>
       </c>
-      <c r="C28" s="108"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="108" t="s">
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="F28" s="108" t="s">
+      <c r="F28" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="G28" s="108"/>
-      <c r="H28" s="108"/>
-      <c r="I28" s="108"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
     </row>
     <row r="29" spans="2:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="107">
+      <c r="B29" s="99">
         <f t="shared" si="0"/>
         <v>0.81250000000000033</v>
       </c>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108" t="s">
+      <c r="C29" s="100"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="F29" s="108" t="s">
+      <c r="F29" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="108"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="100"/>
     </row>
     <row r="30" spans="2:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="107">
+      <c r="B30" s="99">
         <f t="shared" si="0"/>
         <v>0.8333333333333337</v>
       </c>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="108" t="s">
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="F30" s="108" t="s">
+      <c r="F30" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="G30" s="108" t="s">
+      <c r="G30" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="H30" s="108"/>
-      <c r="I30" s="108"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
     </row>
     <row r="31" spans="2:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="107">
+      <c r="B31" s="99">
         <f t="shared" si="0"/>
         <v>0.85416666666666707</v>
       </c>
-      <c r="C31" s="108"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108" t="s">
+      <c r="C31" s="100"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="108" t="s">
+      <c r="F31" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="G31" s="108" t="s">
+      <c r="G31" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="H31" s="108"/>
-      <c r="I31" s="108"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="100"/>
     </row>
     <row r="32" spans="2:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="107">
+      <c r="B32" s="99">
         <f t="shared" si="0"/>
         <v>0.87500000000000044</v>
       </c>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108" t="s">
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="F32" s="108" t="s">
+      <c r="F32" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="G32" s="108" t="s">
+      <c r="G32" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="H32" s="108"/>
-      <c r="I32" s="108"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
     </row>
     <row r="33" spans="2:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="107">
+      <c r="B33" s="99">
         <f t="shared" si="0"/>
         <v>0.89583333333333381</v>
       </c>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="108" t="s">
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="F33" s="108" t="s">
+      <c r="F33" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="G33" s="108" t="s">
+      <c r="G33" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="H33" s="108"/>
-      <c r="I33" s="108"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="100"/>
     </row>
     <row r="34" spans="2:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="107">
+      <c r="B34" s="99">
         <f t="shared" si="0"/>
         <v>0.91666666666666718</v>
       </c>
-      <c r="C34" s="108"/>
-      <c r="D34" s="108"/>
-      <c r="E34" s="108" t="s">
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="F34" s="108" t="s">
+      <c r="F34" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="G34" s="108" t="s">
+      <c r="G34" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="H34" s="108"/>
-      <c r="I34" s="108"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="100"/>
     </row>
     <row r="35" spans="2:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="107">
+      <c r="B35" s="99">
         <f t="shared" si="0"/>
         <v>0.93750000000000056</v>
       </c>
-      <c r="C35" s="108"/>
-      <c r="D35" s="108"/>
-      <c r="E35" s="108"/>
-      <c r="F35" s="108"/>
-      <c r="G35" s="108"/>
-      <c r="H35" s="108"/>
-      <c r="I35" s="108"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="100"/>
     </row>
     <row r="36" spans="2:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="107">
+      <c r="B36" s="99">
         <f t="shared" si="0"/>
         <v>0.95833333333333393</v>
       </c>
-      <c r="C36" s="108"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="108"/>
-      <c r="G36" s="108"/>
-      <c r="H36" s="108"/>
-      <c r="I36" s="108"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="100"/>
     </row>
     <row r="37" spans="2:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="107">
+      <c r="B37" s="99">
         <f t="shared" si="0"/>
         <v>0.9791666666666673</v>
       </c>
-      <c r="C37" s="108"/>
-      <c r="D37" s="108"/>
-      <c r="E37" s="108"/>
-      <c r="F37" s="108"/>
-      <c r="G37" s="108"/>
-      <c r="H37" s="108"/>
-      <c r="I37" s="108"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="100"/>
     </row>
     <row r="38" spans="2:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="107">
+      <c r="B38" s="99">
         <f t="shared" si="0"/>
         <v>1.0000000000000007</v>
       </c>
-      <c r="C38" s="108"/>
-      <c r="D38" s="108"/>
-      <c r="E38" s="108"/>
-      <c r="F38" s="108"/>
-      <c r="G38" s="108"/>
-      <c r="H38" s="108"/>
-      <c r="I38" s="108"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="100"/>
     </row>
     <row r="39" spans="2:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="107">
+      <c r="B39" s="99">
         <f t="shared" si="0"/>
         <v>1.0208333333333339</v>
       </c>
-      <c r="C39" s="108"/>
-      <c r="D39" s="108"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="108"/>
-      <c r="G39" s="108"/>
-      <c r="H39" s="108"/>
-      <c r="I39" s="108"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="100"/>
     </row>
     <row r="40" spans="2:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="107">
+      <c r="B40" s="99">
         <f t="shared" si="0"/>
         <v>1.0416666666666672</v>
       </c>
-      <c r="C40" s="108"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="108"/>
-      <c r="H40" s="108"/>
-      <c r="I40" s="108"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="100"/>
     </row>
     <row r="41" spans="2:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="107">
+      <c r="B41" s="99">
         <f t="shared" si="0"/>
         <v>1.0625000000000004</v>
       </c>
-      <c r="C41" s="108"/>
-      <c r="D41" s="108"/>
-      <c r="E41" s="108"/>
-      <c r="F41" s="108"/>
-      <c r="G41" s="108"/>
-      <c r="H41" s="108"/>
-      <c r="I41" s="108"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="100"/>
     </row>
     <row r="42" spans="2:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="107">
+      <c r="B42" s="99">
         <f t="shared" si="0"/>
         <v>1.0833333333333337</v>
       </c>
-      <c r="C42" s="108"/>
-      <c r="D42" s="108"/>
-      <c r="E42" s="108"/>
-      <c r="F42" s="108"/>
-      <c r="G42" s="108"/>
-      <c r="H42" s="108"/>
-      <c r="I42" s="108"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="100"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="100"/>
     </row>
     <row r="43" spans="2:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="107">
+      <c r="B43" s="99">
         <f t="shared" si="0"/>
         <v>1.104166666666667</v>
       </c>
-      <c r="C43" s="108"/>
-      <c r="D43" s="108"/>
-      <c r="E43" s="108"/>
-      <c r="F43" s="108"/>
-      <c r="G43" s="108"/>
-      <c r="H43" s="108"/>
-      <c r="I43" s="108"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="100"/>
     </row>
     <row r="44" spans="2:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="107">
+      <c r="B44" s="99">
         <f t="shared" si="0"/>
         <v>1.1250000000000002</v>
       </c>
-      <c r="C44" s="108"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="108"/>
-      <c r="G44" s="108"/>
-      <c r="H44" s="108"/>
-      <c r="I44" s="108"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
     </row>
     <row r="45" spans="2:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="107">
+      <c r="B45" s="99">
         <f t="shared" si="0"/>
         <v>1.1458333333333335</v>
       </c>
-      <c r="C45" s="108"/>
-      <c r="D45" s="108"/>
-      <c r="E45" s="108"/>
-      <c r="F45" s="108"/>
-      <c r="G45" s="108"/>
-      <c r="H45" s="108"/>
-      <c r="I45" s="108"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="100"/>
+      <c r="E45" s="100"/>
+      <c r="F45" s="100"/>
+      <c r="G45" s="100"/>
+      <c r="H45" s="100"/>
+      <c r="I45" s="100"/>
     </row>
     <row r="46" spans="2:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="107">
+      <c r="B46" s="99">
         <f t="shared" si="0"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="C46" s="108"/>
-      <c r="D46" s="108"/>
-      <c r="E46" s="108"/>
-      <c r="F46" s="108"/>
-      <c r="G46" s="108"/>
-      <c r="H46" s="108"/>
-      <c r="I46" s="108"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="100"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="100"/>
+      <c r="H46" s="100"/>
+      <c r="I46" s="100"/>
     </row>
     <row r="47" spans="2:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="107">
+      <c r="B47" s="99">
         <f t="shared" si="0"/>
         <v>1.1875</v>
       </c>
-      <c r="C47" s="108"/>
-      <c r="D47" s="108"/>
-      <c r="E47" s="108"/>
-      <c r="F47" s="108"/>
-      <c r="G47" s="108"/>
-      <c r="H47" s="108"/>
-      <c r="I47" s="108"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="100"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="100"/>
     </row>
     <row r="48" spans="2:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="107">
+      <c r="B48" s="99">
         <f t="shared" si="0"/>
         <v>1.2083333333333333</v>
       </c>
-      <c r="C48" s="108"/>
-      <c r="D48" s="108"/>
-      <c r="E48" s="108"/>
-      <c r="F48" s="108"/>
-      <c r="G48" s="108"/>
-      <c r="H48" s="108"/>
-      <c r="I48" s="108"/>
+      <c r="C48" s="100"/>
+      <c r="D48" s="100"/>
+      <c r="E48" s="100"/>
+      <c r="F48" s="100"/>
+      <c r="G48" s="100"/>
+      <c r="H48" s="100"/>
+      <c r="I48" s="100"/>
     </row>
     <row r="49" spans="2:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="107">
+      <c r="B49" s="99">
         <f t="shared" si="0"/>
         <v>1.2291666666666665</v>
       </c>
-      <c r="C49" s="108"/>
-      <c r="D49" s="108"/>
-      <c r="E49" s="108"/>
-      <c r="F49" s="108"/>
-      <c r="G49" s="108"/>
-      <c r="H49" s="108"/>
-      <c r="I49" s="108"/>
+      <c r="C49" s="100"/>
+      <c r="D49" s="100"/>
+      <c r="E49" s="100"/>
+      <c r="F49" s="100"/>
+      <c r="G49" s="100"/>
+      <c r="H49" s="100"/>
+      <c r="I49" s="100"/>
     </row>
     <row r="50" spans="2:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="107">
+      <c r="B50" s="99">
         <f t="shared" si="0"/>
         <v>1.2499999999999998</v>
       </c>
-      <c r="C50" s="108"/>
-      <c r="D50" s="108"/>
-      <c r="E50" s="108"/>
-      <c r="F50" s="108"/>
-      <c r="G50" s="108"/>
-      <c r="H50" s="108"/>
-      <c r="I50" s="108"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="100"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="100"/>
+      <c r="G50" s="100"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="100"/>
     </row>
     <row r="51" spans="2:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="107">
+      <c r="B51" s="99">
         <f t="shared" si="0"/>
         <v>1.270833333333333</v>
       </c>
-      <c r="C51" s="108"/>
-      <c r="D51" s="108"/>
-      <c r="E51" s="108"/>
-      <c r="F51" s="108"/>
-      <c r="G51" s="108"/>
-      <c r="H51" s="108"/>
-      <c r="I51" s="108"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="100"/>
+      <c r="I51" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8048,118 +8047,118 @@
       <c r="B3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="97">
+      <c r="D3" s="134"/>
+      <c r="E3" s="135">
         <f ca="1">TODAY()</f>
         <v>44468</v>
       </c>
-      <c r="F3" s="97"/>
+      <c r="F3" s="135"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="96"/>
+      <c r="D4" s="134"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="91">
+      <c r="I4" s="128">
         <f ca="1">I5</f>
         <v>44466</v>
       </c>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="91">
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="130"/>
+      <c r="P4" s="128">
         <f ca="1">P5</f>
         <v>44473</v>
       </c>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="91">
+      <c r="Q4" s="129"/>
+      <c r="R4" s="129"/>
+      <c r="S4" s="129"/>
+      <c r="T4" s="129"/>
+      <c r="U4" s="129"/>
+      <c r="V4" s="130"/>
+      <c r="W4" s="128">
         <f ca="1">W5</f>
         <v>44480</v>
       </c>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="93"/>
-      <c r="AD4" s="91">
+      <c r="X4" s="129"/>
+      <c r="Y4" s="129"/>
+      <c r="Z4" s="129"/>
+      <c r="AA4" s="129"/>
+      <c r="AB4" s="129"/>
+      <c r="AC4" s="130"/>
+      <c r="AD4" s="128">
         <f ca="1">AD5</f>
         <v>44487</v>
       </c>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="93"/>
-      <c r="AK4" s="91">
+      <c r="AE4" s="129"/>
+      <c r="AF4" s="129"/>
+      <c r="AG4" s="129"/>
+      <c r="AH4" s="129"/>
+      <c r="AI4" s="129"/>
+      <c r="AJ4" s="130"/>
+      <c r="AK4" s="128">
         <f ca="1">AK5</f>
         <v>44494</v>
       </c>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="92"/>
-      <c r="AP4" s="92"/>
-      <c r="AQ4" s="93"/>
-      <c r="AR4" s="91">
+      <c r="AL4" s="129"/>
+      <c r="AM4" s="129"/>
+      <c r="AN4" s="129"/>
+      <c r="AO4" s="129"/>
+      <c r="AP4" s="129"/>
+      <c r="AQ4" s="130"/>
+      <c r="AR4" s="128">
         <f ca="1">AR5</f>
         <v>44501</v>
       </c>
-      <c r="AS4" s="92"/>
-      <c r="AT4" s="92"/>
-      <c r="AU4" s="92"/>
-      <c r="AV4" s="92"/>
-      <c r="AW4" s="92"/>
-      <c r="AX4" s="93"/>
-      <c r="AY4" s="91">
+      <c r="AS4" s="129"/>
+      <c r="AT4" s="129"/>
+      <c r="AU4" s="129"/>
+      <c r="AV4" s="129"/>
+      <c r="AW4" s="129"/>
+      <c r="AX4" s="130"/>
+      <c r="AY4" s="128">
         <f ca="1">AY5</f>
         <v>44508</v>
       </c>
-      <c r="AZ4" s="92"/>
-      <c r="BA4" s="92"/>
-      <c r="BB4" s="92"/>
-      <c r="BC4" s="92"/>
-      <c r="BD4" s="92"/>
-      <c r="BE4" s="93"/>
-      <c r="BF4" s="91">
+      <c r="AZ4" s="129"/>
+      <c r="BA4" s="129"/>
+      <c r="BB4" s="129"/>
+      <c r="BC4" s="129"/>
+      <c r="BD4" s="129"/>
+      <c r="BE4" s="130"/>
+      <c r="BF4" s="128">
         <f ca="1">BF5</f>
         <v>44515</v>
       </c>
-      <c r="BG4" s="92"/>
-      <c r="BH4" s="92"/>
-      <c r="BI4" s="92"/>
-      <c r="BJ4" s="92"/>
-      <c r="BK4" s="92"/>
-      <c r="BL4" s="93"/>
+      <c r="BG4" s="129"/>
+      <c r="BH4" s="129"/>
+      <c r="BI4" s="129"/>
+      <c r="BJ4" s="129"/>
+      <c r="BK4" s="129"/>
+      <c r="BL4" s="130"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
       <c r="I5" s="81">
         <f ca="1">プロジェクト_開始-WEEKDAY(プロジェクト_開始,1)+2+7*(週_表示-1)</f>
         <v>44466</v>
@@ -10696,11 +10695,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -10708,6 +10702,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="37"/>
   <conditionalFormatting sqref="D7:D33">
